--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -683,16 +683,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.005608747339882925</v>
+        <v>0.02054416353671518</v>
       </c>
       <c r="D2">
-        <v>0.001950675617378828</v>
+        <v>0.004102534773005262</v>
       </c>
       <c r="E2">
-        <v>7.571467662059739E-05</v>
+        <v>0.006839779162894688</v>
       </c>
       <c r="F2">
-        <v>1.025663332043791E-09</v>
+        <v>1.983307453579108E-05</v>
       </c>
       <c r="G2">
-        <v>9.525057833581485E-06</v>
+        <v>3.78483761205306E-05</v>
       </c>
       <c r="H2">
-        <v>0.001297601023330097</v>
+        <v>0.02182074568113457</v>
       </c>
       <c r="I2">
-        <v>0.0008814814004027838</v>
+        <v>0.01519077664026258</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.118703574221058E-09</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005608747339882925</v>
+        <v>0.02054416353671518</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.0001634855290426618</v>
+        <v>0.002463615943131936</v>
       </c>
       <c r="E3">
-        <v>1.590999124090331E-05</v>
+        <v>0.002961048196503224</v>
       </c>
       <c r="F3">
-        <v>6.655517914566644E-09</v>
+        <v>3.137397357222405E-05</v>
       </c>
       <c r="G3">
-        <v>6.275868713601085E-12</v>
+        <v>9.95424009886392E-09</v>
       </c>
       <c r="H3">
-        <v>7.585485350958265E-09</v>
+        <v>0.0003798629850140234</v>
       </c>
       <c r="I3">
-        <v>0.2695560938556854</v>
+        <v>0.2452406342246212</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.224407686351014E-09</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.001950675617378828</v>
+        <v>0.004102534773005262</v>
       </c>
       <c r="C4">
-        <v>0.0001634855290426618</v>
+        <v>0.002463615943131936</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.08288344189497776</v>
+        <v>0.1130517233694399</v>
       </c>
       <c r="F4">
-        <v>0.3356663725749689</v>
+        <v>0.2273095289132145</v>
       </c>
       <c r="G4">
-        <v>0.1930040709690664</v>
+        <v>0.1208675045740597</v>
       </c>
       <c r="H4">
-        <v>0.5497077261905936</v>
+        <v>0.6088297020432312</v>
       </c>
       <c r="I4">
-        <v>9.062836037188049E-08</v>
+        <v>0.001446779506447671</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.341906807894588E-09</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.571467662059739E-05</v>
+        <v>0.006839779162894688</v>
       </c>
       <c r="C5">
-        <v>1.590999124090331E-05</v>
+        <v>0.002961048196503224</v>
       </c>
       <c r="D5">
-        <v>0.08288344189497776</v>
+        <v>0.1130517233694399</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3966808167456266</v>
+        <v>0.4367912771902984</v>
       </c>
       <c r="G5">
-        <v>0.9471677492279658</v>
+        <v>0.9539080177214705</v>
       </c>
       <c r="H5">
-        <v>0.5057015874504454</v>
+        <v>0.6066196046388943</v>
       </c>
       <c r="I5">
-        <v>8.081342817156667E-08</v>
+        <v>0.002042482977079763</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.733058403452503E-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.025663332043791E-09</v>
+        <v>1.983307453579108E-05</v>
       </c>
       <c r="C6">
-        <v>6.655517914566644E-09</v>
+        <v>3.137397357222405E-05</v>
       </c>
       <c r="D6">
-        <v>0.3356663725749689</v>
+        <v>0.2273095289132145</v>
       </c>
       <c r="E6">
-        <v>0.3966808167456266</v>
+        <v>0.4367912771902984</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4216997428363658</v>
+        <v>0.338115148263769</v>
       </c>
       <c r="H6">
-        <v>0.9262621222149097</v>
+        <v>0.9398175514280553</v>
       </c>
       <c r="I6">
-        <v>1.708706287573136E-09</v>
+        <v>1.37993871740516E-05</v>
       </c>
       <c r="J6">
-        <v>2.220446049250313E-16</v>
+        <v>2.409578980788751E-08</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.525057833581485E-06</v>
+        <v>3.78483761205306E-05</v>
       </c>
       <c r="C7">
-        <v>6.275868713601085E-12</v>
+        <v>9.95424009886392E-09</v>
       </c>
       <c r="D7">
-        <v>0.1930040709690664</v>
+        <v>0.1208675045740597</v>
       </c>
       <c r="E7">
-        <v>0.9471677492279658</v>
+        <v>0.9539080177214705</v>
       </c>
       <c r="F7">
-        <v>0.4216997428363658</v>
+        <v>0.338115148263769</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2439909549257795</v>
+        <v>0.2793491822940457</v>
       </c>
       <c r="I7">
-        <v>1.27352841605699E-08</v>
+        <v>8.978023791073042E-08</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.873023352556459E-08</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.001297601023330097</v>
+        <v>0.02182074568113457</v>
       </c>
       <c r="C8">
-        <v>7.585485350958265E-09</v>
+        <v>0.0003798629850140234</v>
       </c>
       <c r="D8">
-        <v>0.5497077261905936</v>
+        <v>0.6088297020432312</v>
       </c>
       <c r="E8">
-        <v>0.5057015874504454</v>
+        <v>0.6066196046388943</v>
       </c>
       <c r="F8">
-        <v>0.9262621222149097</v>
+        <v>0.9398175514280553</v>
       </c>
       <c r="G8">
-        <v>0.2439909549257795</v>
+        <v>0.2793491822940457</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.686067070405528E-07</v>
+        <v>0.000188894703086584</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.277102388985156E-07</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0008814814004027838</v>
+        <v>0.01519077664026258</v>
       </c>
       <c r="C9">
-        <v>0.2695560938556854</v>
+        <v>0.2452406342246212</v>
       </c>
       <c r="D9">
-        <v>9.062836037188049E-08</v>
+        <v>0.001446779506447671</v>
       </c>
       <c r="E9">
-        <v>8.081342817156667E-08</v>
+        <v>0.002042482977079763</v>
       </c>
       <c r="F9">
-        <v>1.708706287573136E-09</v>
+        <v>1.37993871740516E-05</v>
       </c>
       <c r="G9">
-        <v>1.27352841605699E-08</v>
+        <v>8.978023791073042E-08</v>
       </c>
       <c r="H9">
-        <v>1.686067070405528E-07</v>
+        <v>0.000188894703086584</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.093762966978943E-09</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1.118703574221058E-09</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1.224407686351014E-09</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.341906807894588E-09</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.733058403452503E-07</v>
       </c>
       <c r="F10">
-        <v>2.220446049250313E-16</v>
+        <v>2.409578980788751E-08</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.873023352556459E-08</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>6.277102388985156E-07</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.093762966978943E-09</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.782408178801522</v>
+        <v>2.610717141031786</v>
       </c>
       <c r="D2">
-        <v>-3.114857903552829</v>
+        <v>-3.425139658064613</v>
       </c>
       <c r="E2">
-        <v>-3.992258837522775</v>
+        <v>-3.168190191260131</v>
       </c>
       <c r="F2">
-        <v>-6.229448378382901</v>
+        <v>-6.291540413517748</v>
       </c>
       <c r="G2">
-        <v>-4.475751172097818</v>
+        <v>-5.912552836069583</v>
       </c>
       <c r="H2">
-        <v>-3.235660121616863</v>
+        <v>-2.579732203178777</v>
       </c>
       <c r="I2">
-        <v>3.346910296430217</v>
+        <v>2.764999082356697</v>
       </c>
       <c r="J2">
-        <v>-10.88557948772233</v>
+        <v>-14.13029932614793</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.782408178801522</v>
+        <v>-2.610717141031786</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.799775019999144</v>
+        <v>-3.681994804250974</v>
       </c>
       <c r="E3">
-        <v>-4.360303679571959</v>
+        <v>-3.589237874196824</v>
       </c>
       <c r="F3">
-        <v>-5.90587190265138</v>
+        <v>-6.021381501038252</v>
       </c>
       <c r="G3">
-        <v>-7.05007650600656</v>
+        <v>-11.94190806746603</v>
       </c>
       <c r="H3">
-        <v>-5.882703856712537</v>
+        <v>-4.643327564778173</v>
       </c>
       <c r="I3">
-        <v>1.105365591953042</v>
+        <v>1.212891665998232</v>
       </c>
       <c r="J3">
-        <v>-11.24384631168802</v>
+        <v>-14.03349730670159</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.114857903552829</v>
+        <v>3.425139658064613</v>
       </c>
       <c r="C4">
-        <v>3.799775019999144</v>
+        <v>3.681994804250974</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.737830044782837</v>
+        <v>-1.690568841997594</v>
       </c>
       <c r="F4">
-        <v>-0.963732413857464</v>
+        <v>-1.262742388823827</v>
       </c>
       <c r="G4">
-        <v>-1.303576854865596</v>
+        <v>-1.651562663370604</v>
       </c>
       <c r="H4">
-        <v>-0.5986223377726259</v>
+        <v>-0.5234764216533269</v>
       </c>
       <c r="I4">
-        <v>5.428158226563377</v>
+        <v>3.951749147320574</v>
       </c>
       <c r="J4">
-        <v>-9.463611615010464</v>
+        <v>-13.93584455663424</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.992258837522775</v>
+        <v>3.168190191260131</v>
       </c>
       <c r="C5">
-        <v>4.360303679571959</v>
+        <v>3.589237874196824</v>
       </c>
       <c r="D5">
-        <v>1.737830044782837</v>
+        <v>1.690568841997594</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.84832481952653</v>
+        <v>0.8005073618741826</v>
       </c>
       <c r="G5">
-        <v>0.06629861343383447</v>
+        <v>0.05884403937409685</v>
       </c>
       <c r="H5">
-        <v>0.6660471610810549</v>
+        <v>0.5267404159089561</v>
       </c>
       <c r="I5">
-        <v>5.449846397321694</v>
+        <v>3.77675076044754</v>
       </c>
       <c r="J5">
-        <v>-8.937209622084994</v>
+        <v>-9.510493386921434</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.229448378382901</v>
+        <v>6.291540413517748</v>
       </c>
       <c r="C6">
-        <v>5.90587190265138</v>
+        <v>6.021381501038252</v>
       </c>
       <c r="D6">
-        <v>0.963732413857464</v>
+        <v>1.262742388823827</v>
       </c>
       <c r="E6">
-        <v>-0.84832481952653</v>
+        <v>-0.8005073618741826</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.8041664966691687</v>
+        <v>-0.9918280945160519</v>
       </c>
       <c r="H6">
-        <v>0.09259740224692446</v>
+        <v>0.07686638543560266</v>
       </c>
       <c r="I6">
-        <v>6.142506298286545</v>
+        <v>6.509539756960056</v>
       </c>
       <c r="J6">
-        <v>-8.481432812315116</v>
+        <v>-11.14188304278157</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.475751172097818</v>
+        <v>5.912552836069583</v>
       </c>
       <c r="C7">
-        <v>7.05007650600656</v>
+        <v>11.94190806746603</v>
       </c>
       <c r="D7">
-        <v>1.303576854865596</v>
+        <v>1.651562663370604</v>
       </c>
       <c r="E7">
-        <v>-0.06629861343383447</v>
+        <v>-0.05884403937409685</v>
       </c>
       <c r="F7">
-        <v>0.8041664966691687</v>
+        <v>0.9918280945160519</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.166504530185019</v>
+        <v>1.125385968679645</v>
       </c>
       <c r="I7">
-        <v>5.790180149713299</v>
+        <v>10.03207067113413</v>
       </c>
       <c r="J7">
-        <v>-8.793465116161718</v>
+        <v>-10.98803946835767</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.235660121616863</v>
+        <v>2.579732203178777</v>
       </c>
       <c r="C8">
-        <v>5.882703856712537</v>
+        <v>4.643327564778173</v>
       </c>
       <c r="D8">
-        <v>0.5986223377726259</v>
+        <v>0.5234764216533269</v>
       </c>
       <c r="E8">
-        <v>-0.6660471610810549</v>
+        <v>-0.5267404159089561</v>
       </c>
       <c r="F8">
-        <v>-0.09259740224692446</v>
+        <v>-0.07686638543560266</v>
       </c>
       <c r="G8">
-        <v>-1.166504530185019</v>
+        <v>-1.125385968679645</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.309427187217635</v>
+        <v>5.015819887476932</v>
       </c>
       <c r="J8">
-        <v>-8.799709194215241</v>
+        <v>-8.54839354371728</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.346910296430217</v>
+        <v>-2.764999082356697</v>
       </c>
       <c r="C9">
-        <v>-1.105365591953042</v>
+        <v>-1.212891665998232</v>
       </c>
       <c r="D9">
-        <v>-5.428158226563377</v>
+        <v>-3.951749147320574</v>
       </c>
       <c r="E9">
-        <v>-5.449846397321694</v>
+        <v>-3.77675076044754</v>
       </c>
       <c r="F9">
-        <v>-6.142506298286545</v>
+        <v>-6.509539756960056</v>
       </c>
       <c r="G9">
-        <v>-5.790180149713299</v>
+        <v>-10.03207067113413</v>
       </c>
       <c r="H9">
-        <v>-5.309427187217635</v>
+        <v>-5.015819887476932</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-11.67714267719716</v>
+        <v>-12.57953253423835</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.88557948772233</v>
+        <v>14.13029932614793</v>
       </c>
       <c r="C10">
-        <v>11.24384631168802</v>
+        <v>14.03349730670159</v>
       </c>
       <c r="D10">
-        <v>9.463611615010464</v>
+        <v>13.93584455663424</v>
       </c>
       <c r="E10">
-        <v>8.937209622084994</v>
+        <v>9.510493386921434</v>
       </c>
       <c r="F10">
-        <v>8.481432812315116</v>
+        <v>11.14188304278157</v>
       </c>
       <c r="G10">
-        <v>8.793465116161718</v>
+        <v>10.98803946835767</v>
       </c>
       <c r="H10">
-        <v>8.799709194215241</v>
+        <v>8.54839354371728</v>
       </c>
       <c r="I10">
-        <v>11.67714267719716</v>
+        <v>12.57953253423835</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1437,42 +1437,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>0.6332213953123457</v>
+        <v>0.6444787228878719</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>0.6444787228878719</v>
+        <v>0.6332213953123457</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,16 +1480,16 @@
         <v>0</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
       <c r="E4">
-        <v>62.5</v>
+        <v>37.5</v>
       </c>
       <c r="F4">
         <v>0.6667156546733405</v>
@@ -1503,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E5">
         <v>12.5</v>
@@ -1523,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>12.5</v>
@@ -1583,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>12.5</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_No_Lineal_Estacionario_SETAR.xlsx
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,13 +555,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -611,7 +611,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -651,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -675,7 +675,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -721,19 +721,19 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02054416353671518</v>
+        <v>0.03248646933292543</v>
       </c>
       <c r="D2">
-        <v>0.004102534773005262</v>
+        <v>0.0004064463890027792</v>
       </c>
       <c r="E2">
-        <v>0.006839779162894688</v>
+        <v>1.470194803587788E-05</v>
       </c>
       <c r="F2">
-        <v>1.983307453579108E-05</v>
+        <v>1.046538411486608E-10</v>
       </c>
       <c r="G2">
-        <v>3.78483761205306E-05</v>
+        <v>2.735265588782454E-05</v>
       </c>
       <c r="H2">
-        <v>0.02182074568113457</v>
+        <v>1.62635843312664E-05</v>
       </c>
       <c r="I2">
-        <v>0.01519077664026258</v>
+        <v>0.01197952938703373</v>
       </c>
       <c r="J2">
-        <v>1.118703574221058E-09</v>
+        <v>3.896909772649337E-08</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02054416353671518</v>
+        <v>0.03248646933292543</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.002463615943131936</v>
+        <v>0.002503383442685303</v>
       </c>
       <c r="E3">
-        <v>0.002961048196503224</v>
+        <v>0.0005305609780887899</v>
       </c>
       <c r="F3">
-        <v>3.137397357222405E-05</v>
+        <v>1.914826852633666E-08</v>
       </c>
       <c r="G3">
-        <v>9.95424009886392E-09</v>
+        <v>3.743831111790996E-08</v>
       </c>
       <c r="H3">
-        <v>0.0003798629850140234</v>
+        <v>3.416333438366337E-09</v>
       </c>
       <c r="I3">
-        <v>0.2452406342246212</v>
+        <v>0.01528847838911429</v>
       </c>
       <c r="J3">
-        <v>1.224407686351014E-09</v>
+        <v>6.369417480112105E-07</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004102534773005262</v>
+        <v>0.0004064463890027792</v>
       </c>
       <c r="C4">
-        <v>0.002463615943131936</v>
+        <v>0.002503383442685303</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.1130517233694399</v>
+        <v>0.0002658199617309176</v>
       </c>
       <c r="F4">
-        <v>0.2273095289132145</v>
+        <v>0.02215551540556016</v>
       </c>
       <c r="G4">
-        <v>0.1208675045740597</v>
+        <v>0.02232244610420775</v>
       </c>
       <c r="H4">
-        <v>0.6088297020432312</v>
+        <v>0.04238028527013005</v>
       </c>
       <c r="I4">
-        <v>0.001446779506447671</v>
+        <v>0.001812557428834349</v>
       </c>
       <c r="J4">
-        <v>1.341906807894588E-09</v>
+        <v>0.1255809372759691</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.006839779162894688</v>
+        <v>1.470194803587788E-05</v>
       </c>
       <c r="C5">
-        <v>0.002961048196503224</v>
+        <v>0.0005305609780887899</v>
       </c>
       <c r="D5">
-        <v>0.1130517233694399</v>
+        <v>0.0002658199617309176</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.4367912771902984</v>
+        <v>0.07386628290711372</v>
       </c>
       <c r="G5">
-        <v>0.9539080177214705</v>
+        <v>0.04004518915101962</v>
       </c>
       <c r="H5">
-        <v>0.6066196046388943</v>
+        <v>0.08101604285100916</v>
       </c>
       <c r="I5">
-        <v>0.002042482977079763</v>
+        <v>0.0005092572807632312</v>
       </c>
       <c r="J5">
-        <v>1.733058403452503E-07</v>
+        <v>0.3886632157860985</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.983307453579108E-05</v>
+        <v>1.046538411486608E-10</v>
       </c>
       <c r="C6">
-        <v>3.137397357222405E-05</v>
+        <v>1.914826852633666E-08</v>
       </c>
       <c r="D6">
-        <v>0.2273095289132145</v>
+        <v>0.02215551540556016</v>
       </c>
       <c r="E6">
-        <v>0.4367912771902984</v>
+        <v>0.07386628290711372</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.338115148263769</v>
+        <v>0.05315617426831354</v>
       </c>
       <c r="H6">
-        <v>0.9398175514280553</v>
+        <v>0.1830802892310421</v>
       </c>
       <c r="I6">
-        <v>1.37993871740516E-05</v>
+        <v>1.018532460594912E-07</v>
       </c>
       <c r="J6">
-        <v>2.409578980788751E-08</v>
+        <v>0.165137647929565</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.78483761205306E-05</v>
+        <v>2.735265588782454E-05</v>
       </c>
       <c r="C7">
-        <v>9.95424009886392E-09</v>
+        <v>3.743831111790996E-08</v>
       </c>
       <c r="D7">
-        <v>0.1208675045740597</v>
+        <v>0.02232244610420775</v>
       </c>
       <c r="E7">
-        <v>0.9539080177214705</v>
+        <v>0.04004518915101962</v>
       </c>
       <c r="F7">
-        <v>0.338115148263769</v>
+        <v>0.05315617426831354</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2793491822940457</v>
+        <v>0.06838259960021587</v>
       </c>
       <c r="I7">
-        <v>8.978023791073042E-08</v>
+        <v>2.275710730970104E-10</v>
       </c>
       <c r="J7">
-        <v>2.873023352556459E-08</v>
+        <v>0.02034359965497168</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02182074568113457</v>
+        <v>1.62635843312664E-05</v>
       </c>
       <c r="C8">
-        <v>0.0003798629850140234</v>
+        <v>3.416333438366337E-09</v>
       </c>
       <c r="D8">
-        <v>0.6088297020432312</v>
+        <v>0.04238028527013005</v>
       </c>
       <c r="E8">
-        <v>0.6066196046388943</v>
+        <v>0.08101604285100916</v>
       </c>
       <c r="F8">
-        <v>0.9398175514280553</v>
+        <v>0.1830802892310421</v>
       </c>
       <c r="G8">
-        <v>0.2793491822940457</v>
+        <v>0.06838259960021587</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.000188894703086584</v>
+        <v>2.276046018323541E-11</v>
       </c>
       <c r="J8">
-        <v>6.277102388985156E-07</v>
+        <v>0.0711435155204827</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01519077664026258</v>
+        <v>0.01197952938703373</v>
       </c>
       <c r="C9">
-        <v>0.2452406342246212</v>
+        <v>0.01528847838911429</v>
       </c>
       <c r="D9">
-        <v>0.001446779506447671</v>
+        <v>0.001812557428834349</v>
       </c>
       <c r="E9">
-        <v>0.002042482977079763</v>
+        <v>0.0005092572807632312</v>
       </c>
       <c r="F9">
-        <v>1.37993871740516E-05</v>
+        <v>1.018532460594912E-07</v>
       </c>
       <c r="G9">
-        <v>8.978023791073042E-08</v>
+        <v>2.275710730970104E-10</v>
       </c>
       <c r="H9">
-        <v>0.000188894703086584</v>
+        <v>2.276046018323541E-11</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>5.093762966978943E-09</v>
+        <v>2.706716494049743E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.118703574221058E-09</v>
+        <v>3.896909772649337E-08</v>
       </c>
       <c r="C10">
-        <v>1.224407686351014E-09</v>
+        <v>6.369417480112105E-07</v>
       </c>
       <c r="D10">
-        <v>1.341906807894588E-09</v>
+        <v>0.1255809372759691</v>
       </c>
       <c r="E10">
-        <v>1.733058403452503E-07</v>
+        <v>0.3886632157860985</v>
       </c>
       <c r="F10">
-        <v>2.409578980788751E-08</v>
+        <v>0.165137647929565</v>
       </c>
       <c r="G10">
-        <v>2.873023352556459E-08</v>
+        <v>0.02034359965497168</v>
       </c>
       <c r="H10">
-        <v>6.277102388985156E-07</v>
+        <v>0.0711435155204827</v>
       </c>
       <c r="I10">
-        <v>5.093762966978943E-09</v>
+        <v>2.706716494049743E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.610717141031786</v>
+        <v>2.282506913291301</v>
       </c>
       <c r="D2">
-        <v>-3.425139658064613</v>
+        <v>-4.161757063627411</v>
       </c>
       <c r="E2">
-        <v>-3.168190191260131</v>
+        <v>-5.531377087055867</v>
       </c>
       <c r="F2">
-        <v>-6.291540413517748</v>
+        <v>-11.40639040662959</v>
       </c>
       <c r="G2">
-        <v>-5.912552836069583</v>
+        <v>-5.271747646021216</v>
       </c>
       <c r="H2">
-        <v>-2.579732203178777</v>
+        <v>-5.488991439056965</v>
       </c>
       <c r="I2">
-        <v>2.764999082356697</v>
+        <v>2.739022565122753</v>
       </c>
       <c r="J2">
-        <v>-14.13029932614793</v>
+        <v>-8.201447887582624</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.610717141031786</v>
+        <v>-2.282506913291301</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.681994804250974</v>
+        <v>-3.411215166310174</v>
       </c>
       <c r="E3">
-        <v>-3.589237874196824</v>
+        <v>-4.052583314446243</v>
       </c>
       <c r="F3">
-        <v>-6.021381501038252</v>
+        <v>-8.552341013295623</v>
       </c>
       <c r="G3">
-        <v>-11.94190806746603</v>
+        <v>-8.221025523764821</v>
       </c>
       <c r="H3">
-        <v>-4.643327564778173</v>
+        <v>-9.438767494356606</v>
       </c>
       <c r="I3">
-        <v>1.212891665998232</v>
+        <v>2.630120356882673</v>
       </c>
       <c r="J3">
-        <v>-14.03349730670159</v>
+        <v>-6.893181787819936</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.425139658064613</v>
+        <v>4.161757063627411</v>
       </c>
       <c r="C4">
-        <v>3.681994804250974</v>
+        <v>3.411215166310174</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1.690568841997594</v>
+        <v>-4.335555409012478</v>
       </c>
       <c r="F4">
-        <v>-1.262742388823827</v>
+        <v>-2.461349303920644</v>
       </c>
       <c r="G4">
-        <v>-1.651562663370604</v>
+        <v>-2.457891119323383</v>
       </c>
       <c r="H4">
-        <v>-0.5234764216533269</v>
+        <v>-2.154879614369803</v>
       </c>
       <c r="I4">
-        <v>3.951749147320574</v>
+        <v>3.545962132755271</v>
       </c>
       <c r="J4">
-        <v>-13.93584455663424</v>
+        <v>-1.592318001167902</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.168190191260131</v>
+        <v>5.531377087055867</v>
       </c>
       <c r="C5">
-        <v>3.589237874196824</v>
+        <v>4.052583314446243</v>
       </c>
       <c r="D5">
-        <v>1.690568841997594</v>
+        <v>4.335555409012478</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8005073618741826</v>
+        <v>-1.876841312215716</v>
       </c>
       <c r="G5">
-        <v>0.05884403937409685</v>
+        <v>-2.182346927694811</v>
       </c>
       <c r="H5">
-        <v>0.5267404159089561</v>
+        <v>-1.828823285748043</v>
       </c>
       <c r="I5">
-        <v>3.77675076044754</v>
+        <v>4.069381551478151</v>
       </c>
       <c r="J5">
-        <v>-9.510493386921434</v>
+        <v>-0.8794491035188424</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.291540413517748</v>
+        <v>11.40639040662959</v>
       </c>
       <c r="C6">
-        <v>6.021381501038252</v>
+        <v>8.552341013295623</v>
       </c>
       <c r="D6">
-        <v>1.262742388823827</v>
+        <v>2.461349303920644</v>
       </c>
       <c r="E6">
-        <v>-0.8005073618741826</v>
+        <v>1.876841312215716</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0.9918280945160519</v>
+        <v>-2.043534009040744</v>
       </c>
       <c r="H6">
-        <v>0.07686638543560266</v>
+        <v>-1.374652824180232</v>
       </c>
       <c r="I6">
-        <v>6.509539756960056</v>
+        <v>7.739341651648258</v>
       </c>
       <c r="J6">
-        <v>-11.14188304278157</v>
+        <v>1.435759988158271</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.912552836069583</v>
+        <v>5.271747646021216</v>
       </c>
       <c r="C7">
-        <v>11.94190806746603</v>
+        <v>8.221025523764821</v>
       </c>
       <c r="D7">
-        <v>1.651562663370604</v>
+        <v>2.457891119323383</v>
       </c>
       <c r="E7">
-        <v>-0.05884403937409685</v>
+        <v>2.182346927694811</v>
       </c>
       <c r="F7">
-        <v>0.9918280945160519</v>
+        <v>2.043534009040744</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.125385968679645</v>
+        <v>1.916504420220639</v>
       </c>
       <c r="I7">
-        <v>10.03207067113413</v>
+        <v>10.94563018349977</v>
       </c>
       <c r="J7">
-        <v>-10.98803946835767</v>
+        <v>2.500529684873347</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.579732203178777</v>
+        <v>5.488991439056965</v>
       </c>
       <c r="C8">
-        <v>4.643327564778173</v>
+        <v>9.438767494356606</v>
       </c>
       <c r="D8">
-        <v>0.5234764216533269</v>
+        <v>2.154879614369803</v>
       </c>
       <c r="E8">
-        <v>-0.5267404159089561</v>
+        <v>1.828823285748043</v>
       </c>
       <c r="F8">
-        <v>-0.07686638543560266</v>
+        <v>1.374652824180232</v>
       </c>
       <c r="G8">
-        <v>-1.125385968679645</v>
+        <v>-1.916504420220639</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.015819887476932</v>
+        <v>12.35232192495732</v>
       </c>
       <c r="J8">
-        <v>-8.54839354371728</v>
+        <v>1.896199938768415</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-2.764999082356697</v>
+        <v>-2.739022565122753</v>
       </c>
       <c r="C9">
-        <v>-1.212891665998232</v>
+        <v>-2.630120356882673</v>
       </c>
       <c r="D9">
-        <v>-3.951749147320574</v>
+        <v>-3.545962132755271</v>
       </c>
       <c r="E9">
-        <v>-3.77675076044754</v>
+        <v>-4.069381551478151</v>
       </c>
       <c r="F9">
-        <v>-6.509539756960056</v>
+        <v>-7.739341651648258</v>
       </c>
       <c r="G9">
-        <v>-10.03207067113413</v>
+        <v>-10.94563018349977</v>
       </c>
       <c r="H9">
-        <v>-5.015819887476932</v>
+        <v>-12.35232192495732</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-12.57953253423835</v>
+        <v>-6.253793540311908</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.13029932614793</v>
+        <v>8.201447887582624</v>
       </c>
       <c r="C10">
-        <v>14.03349730670159</v>
+        <v>6.893181787819936</v>
       </c>
       <c r="D10">
-        <v>13.93584455663424</v>
+        <v>1.592318001167902</v>
       </c>
       <c r="E10">
-        <v>9.510493386921434</v>
+        <v>0.8794491035188424</v>
       </c>
       <c r="F10">
-        <v>11.14188304278157</v>
+        <v>-1.435759988158271</v>
       </c>
       <c r="G10">
-        <v>10.98803946835767</v>
+        <v>-2.500529684873347</v>
       </c>
       <c r="H10">
-        <v>8.54839354371728</v>
+        <v>-1.896199938768415</v>
       </c>
       <c r="I10">
-        <v>12.57953253423835</v>
+        <v>6.253793540311908</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1437,102 +1437,102 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>0.6444787228878719</v>
+        <v>0.6351069657946222</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
-        <v>0.6332213953123457</v>
+        <v>0.6191905794636839</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>0.6667156546733405</v>
+        <v>0.6089098619418625</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.7242634814566836</v>
+        <v>0.6607461638369755</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6985621160566644</v>
+        <v>0.6666635774630232</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1540,19 +1540,19 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7115839334031406</v>
+        <v>0.6816002404638436</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1560,19 +1560,19 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7229425387064897</v>
+        <v>0.7057097965912592</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7101747710954442</v>
+        <v>0.6948030281436006</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9144369121101344</v>
+        <v>0.6730784396565838</v>
       </c>
     </row>
   </sheetData>
